--- a/secure/26P-Linda.xlsx
+++ b/secure/26P-Linda.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Linda-791142</t>
+    <t>26P-Linda-618209</t>
   </si>
   <si>
-    <t>26P-Linda-780467</t>
+    <t>26P-Linda-1087484</t>
   </si>
   <si>
-    <t>26P-Linda-686802</t>
+    <t>26P-Linda-564168</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F47c1d38"/>
+        <fgColor rgb="Fb3ca8ed"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XW503"/>
+  <dimension ref="A1:MA503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -739,14 +739,11 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:414" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>-0.812</v>
       </c>
       <c r="M49" s="4"/>
-      <c r="OX49" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -826,14 +823,11 @@
       </c>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:647" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>-0.756</v>
       </c>
       <c r="M63" s="4"/>
-      <c r="XW63" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -997,11 +991,14 @@
       </c>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>-0.644</v>
       </c>
       <c r="M91" s="4"/>
+      <c r="AR91" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
@@ -2089,14 +2086,11 @@
       </c>
       <c r="M272" s="4"/>
     </row>
-    <row r="273" spans="1:241" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>0.084</v>
       </c>
       <c r="M273" s="4"/>
-      <c r="IG273" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
@@ -2170,11 +2164,14 @@
       </c>
       <c r="M285" s="4"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>0.136</v>
       </c>
       <c r="M286" s="4"/>
+      <c r="HH286" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
@@ -3136,11 +3133,14 @@
       </c>
       <c r="M446" s="4"/>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:339" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>0.78</v>
       </c>
       <c r="M447" s="4"/>
+      <c r="MA447" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
